--- a/OC_Santi_FI0123_FF0125.xlsx
+++ b/OC_Santi_FI0123_FF0125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675B8D1B-56C2-4D4E-B8FD-563B4D081DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D00585-E568-4C38-B24A-C4C1EEAD30BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H516"/>
+  <dimension ref="A1:H526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L497" sqref="L497"/>
+    <sheetView tabSelected="1" topLeftCell="A499" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K515" sqref="K515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +500,7 @@
         <v>383.76</v>
       </c>
       <c r="H3">
-        <f>IF(D3=E3,1,0)</f>
+        <f t="shared" ref="H3:H66" si="0">IF(D3=E3,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>381.72</v>
@@ -527,8 +527,8 @@
         <v>379.38</v>
       </c>
       <c r="H4">
-        <f>IF(D4=E4,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>382.61</v>
@@ -554,8 +554,8 @@
         <v>388.08</v>
       </c>
       <c r="H5">
-        <f>IF(D5=E5,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -581,7 +581,7 @@
         <v>387.86</v>
       </c>
       <c r="H6">
-        <f>IF(D6=E6,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -608,7 +608,7 @@
         <v>390.58</v>
       </c>
       <c r="H7">
-        <f>IF(D7=E7,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>392.23</v>
@@ -635,8 +635,8 @@
         <v>395.52</v>
       </c>
       <c r="H8">
-        <f>IF(D8=E8,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -662,7 +662,7 @@
         <v>396.96</v>
       </c>
       <c r="H9">
-        <f>IF(D9=E9,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -689,7 +689,7 @@
         <v>398.5</v>
       </c>
       <c r="H10">
-        <f>IF(D10=E10,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>398.48</v>
@@ -716,8 +716,8 @@
         <v>397.77</v>
       </c>
       <c r="H11">
-        <f>IF(D11=E11,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>399.01</v>
@@ -743,8 +743,8 @@
         <v>391.49</v>
       </c>
       <c r="H12">
-        <f>IF(D12=E12,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>388.64</v>
       </c>
       <c r="H13">
-        <f>IF(D13=E13,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -797,7 +797,7 @@
         <v>395.88</v>
       </c>
       <c r="H14">
-        <f>IF(D14=E14,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>396.72</v>
@@ -824,8 +824,8 @@
         <v>400.63</v>
       </c>
       <c r="H15">
-        <f>IF(D15=E15,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>398.88</v>
@@ -851,8 +851,8 @@
         <v>400.2</v>
       </c>
       <c r="H16">
-        <f>IF(D16=E16,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>395.95</v>
@@ -878,8 +878,8 @@
         <v>400.35</v>
       </c>
       <c r="H17">
-        <f>IF(D17=E17,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -896,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>403.13</v>
@@ -905,8 +905,8 @@
         <v>404.75</v>
       </c>
       <c r="H18">
-        <f>IF(D18=E18,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -932,7 +932,7 @@
         <v>405.68</v>
       </c>
       <c r="H19">
-        <f>IF(D19=E19,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>402.8</v>
@@ -959,8 +959,8 @@
         <v>400.59</v>
       </c>
       <c r="H20">
-        <f>IF(D20=E20,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
         <v>406.48</v>
       </c>
       <c r="H21">
-        <f>IF(D21=E21,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>405.21100000000001</v>
@@ -1013,8 +1013,8 @@
         <v>410.8</v>
       </c>
       <c r="H22">
-        <f>IF(D22=E22,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1040,7 +1040,7 @@
         <v>416.78</v>
       </c>
       <c r="H23">
-        <f>IF(D23=E23,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
         <v>412.35</v>
       </c>
       <c r="H24">
-        <f>IF(D24=E24,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
         <v>409.83</v>
       </c>
       <c r="H25">
-        <f>IF(D25=E25,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>415.19</v>
       </c>
       <c r="H26">
-        <f>IF(D26=E26,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
         <v>410.65</v>
       </c>
       <c r="H27">
-        <f>IF(D27=E27,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
         <v>407.09</v>
       </c>
       <c r="H28">
-        <f>IF(D28=E28,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
         <v>408.04</v>
       </c>
       <c r="H29">
-        <f>IF(D29=E29,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
         <v>412.83</v>
       </c>
       <c r="H30">
-        <f>IF(D30=E30,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
         <v>412.64</v>
       </c>
       <c r="H31">
-        <f>IF(D31=E31,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>410.35</v>
@@ -1283,8 +1283,8 @@
         <v>413.98</v>
       </c>
       <c r="H32">
-        <f>IF(D32=E32,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>408.79</v>
@@ -1310,8 +1310,8 @@
         <v>408.28</v>
       </c>
       <c r="H33">
-        <f>IF(D33=E33,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1337,7 +1337,7 @@
         <v>407.26</v>
       </c>
       <c r="H34">
-        <f>IF(D34=E34,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
         <v>399.09</v>
       </c>
       <c r="H35">
-        <f>IF(D35=E35,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>399.52</v>
@@ -1391,8 +1391,8 @@
         <v>398.54</v>
       </c>
       <c r="H36">
-        <f>IF(D36=E36,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>401.56</v>
@@ -1418,8 +1418,8 @@
         <v>400.66</v>
       </c>
       <c r="H37">
-        <f>IF(D37=E37,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1436,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>395.42</v>
@@ -1445,8 +1445,8 @@
         <v>396.38</v>
       </c>
       <c r="H38">
-        <f>IF(D38=E38,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1472,7 +1472,7 @@
         <v>397.73</v>
       </c>
       <c r="H39">
-        <f>IF(D39=E39,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>397.23</v>
@@ -1499,8 +1499,8 @@
         <v>396.26</v>
       </c>
       <c r="H40">
-        <f>IF(D40=E40,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>395.41</v>
@@ -1526,8 +1526,8 @@
         <v>394.74</v>
       </c>
       <c r="H41">
-        <f>IF(D41=E41,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
         <v>397.81</v>
       </c>
       <c r="H42">
-        <f>IF(D42=E42,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>399.71</v>
@@ -1580,8 +1580,8 @@
         <v>404.19</v>
       </c>
       <c r="H43">
-        <f>IF(D43=E43,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>405.05</v>
@@ -1607,8 +1607,8 @@
         <v>404.47</v>
       </c>
       <c r="H44">
-        <f>IF(D44=E44,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>404.42</v>
@@ -1634,8 +1634,8 @@
         <v>398.27</v>
       </c>
       <c r="H45">
-        <f>IF(D45=E45,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1661,7 +1661,7 @@
         <v>398.92</v>
       </c>
       <c r="H46">
-        <f>IF(D46=E46,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
         <v>391.56</v>
       </c>
       <c r="H47">
-        <f>IF(D47=E47,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
         <v>385.91</v>
       </c>
       <c r="H48">
-        <f>IF(D48=E48,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
         <v>385.36</v>
       </c>
       <c r="H49">
-        <f>IF(D49=E49,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
         <v>391.73</v>
       </c>
       <c r="H50">
-        <f>IF(D50=E50,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
         <v>389.28</v>
       </c>
       <c r="H51">
-        <f>IF(D51=E51,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
         <v>396.11</v>
       </c>
       <c r="H52">
-        <f>IF(D52=E52,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
         <v>389.99</v>
       </c>
       <c r="H53">
-        <f>IF(D53=E53,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
         <v>393.74</v>
       </c>
       <c r="H54">
-        <f>IF(D54=E54,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
         <v>398.91</v>
       </c>
       <c r="H55">
-        <f>IF(D55=E55,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
         <v>392.11</v>
       </c>
       <c r="H56">
-        <f>IF(D56=E56,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
         <v>393.17</v>
       </c>
       <c r="H57">
-        <f>IF(D57=E57,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
         <v>395.75</v>
       </c>
       <c r="H58">
-        <f>IF(D58=E58,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
         <v>396.49</v>
       </c>
       <c r="H59">
-        <f>IF(D59=E59,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>395.77</v>
@@ -2039,8 +2039,8 @@
         <v>395.6</v>
       </c>
       <c r="H60">
-        <f>IF(D60=E60,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>399.92500000000001</v>
@@ -2066,8 +2066,8 @@
         <v>401.35</v>
       </c>
       <c r="H61">
-        <f>IF(D61=E61,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>404.09</v>
@@ -2093,8 +2093,8 @@
         <v>403.7</v>
       </c>
       <c r="H62">
-        <f>IF(D62=E62,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <v>404.66</v>
@@ -2120,8 +2120,8 @@
         <v>409.39</v>
       </c>
       <c r="H63">
-        <f>IF(D63=E63,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2147,7 +2147,7 @@
         <v>410.95</v>
       </c>
       <c r="H64">
-        <f>IF(D64=E64,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
         <v>408.67</v>
       </c>
       <c r="H65">
-        <f>IF(D65=E65,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>407.91</v>
@@ -2201,8 +2201,8 @@
         <v>407.6</v>
       </c>
       <c r="H66">
-        <f>IF(D66=E66,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>406.77</v>
@@ -2228,8 +2228,8 @@
         <v>409.19</v>
       </c>
       <c r="H67">
-        <f>IF(D67=E67,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="H67:H130" si="1">IF(D67=E67,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>406.61</v>
@@ -2255,8 +2255,8 @@
         <v>409.61</v>
       </c>
       <c r="H68">
-        <f>IF(D68=E68,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2282,7 +2282,7 @@
         <v>409.72</v>
       </c>
       <c r="H69">
-        <f>IF(D69=E69,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
         <v>408.05</v>
       </c>
       <c r="H70">
-        <f>IF(D70=E70,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
         <v>413.47</v>
       </c>
       <c r="H71">
-        <f>IF(D71=E71,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
         <v>412.46</v>
       </c>
       <c r="H72">
-        <f>IF(D72=E72,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>412.37</v>
@@ -2390,8 +2390,8 @@
         <v>413.94</v>
       </c>
       <c r="H73">
-        <f>IF(D73=E73,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>415.58</v>
@@ -2417,8 +2417,8 @@
         <v>414.21</v>
       </c>
       <c r="H74">
-        <f>IF(D74=E74,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2444,7 +2444,7 @@
         <v>414.14</v>
       </c>
       <c r="H75">
-        <f>IF(D75=E75,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>411.21</v>
@@ -2471,8 +2471,8 @@
         <v>411.88</v>
       </c>
       <c r="H76">
-        <f>IF(D76=E76,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2498,7 +2498,7 @@
         <v>412.2</v>
       </c>
       <c r="H77">
-        <f>IF(D77=E77,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
         <v>412.63</v>
       </c>
       <c r="H78">
-        <f>IF(D78=E78,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
         <v>406.08</v>
       </c>
       <c r="H79">
-        <f>IF(D79=E79,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
         <v>404.36</v>
       </c>
       <c r="H80">
-        <f>IF(D80=E80,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
         <v>412.41</v>
       </c>
       <c r="H81">
-        <f>IF(D81=E81,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
         <v>415.93</v>
       </c>
       <c r="H82">
-        <f>IF(D82=E82,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
         <v>415.51</v>
       </c>
       <c r="H83">
-        <f>IF(D83=E83,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
         <v>410.84</v>
       </c>
       <c r="H84">
-        <f>IF(D84=E84,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
         <v>408.02</v>
       </c>
       <c r="H85">
-        <f>IF(D85=E85,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
         <v>405.13</v>
       </c>
       <c r="H86">
-        <f>IF(D86=E86,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>408.91</v>
@@ -2768,8 +2768,8 @@
         <v>412.63</v>
       </c>
       <c r="H87">
-        <f>IF(D87=E87,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <v>412.97</v>
@@ -2795,8 +2795,8 @@
         <v>412.74</v>
       </c>
       <c r="H88">
-        <f>IF(D88=E88,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>411.13</v>
@@ -2822,8 +2822,8 @@
         <v>410.93</v>
       </c>
       <c r="H89">
-        <f>IF(D89=E89,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -2849,7 +2849,7 @@
         <v>412.85</v>
       </c>
       <c r="H90">
-        <f>IF(D90=E90,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
         <v>412.13</v>
       </c>
       <c r="H91">
-        <f>IF(D91=E91,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
         <v>411.59</v>
       </c>
       <c r="H92">
-        <f>IF(D92=E92,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
         <v>413.01</v>
       </c>
       <c r="H93">
-        <f>IF(D93=E93,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
         <v>410.25</v>
       </c>
       <c r="H94">
-        <f>IF(D94=E94,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
         <v>415.23</v>
       </c>
       <c r="H95">
-        <f>IF(D95=E95,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
         <v>414.9</v>
@@ -3011,8 +3011,8 @@
         <v>419.23</v>
       </c>
       <c r="H96">
-        <f>IF(D96=E96,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3038,7 +3038,7 @@
         <v>418.62</v>
       </c>
       <c r="H97">
-        <f>IF(D97=E97,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
         <v>418.79</v>
       </c>
       <c r="H98">
-        <f>IF(D98=E98,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>417.08</v>
@@ -3092,8 +3092,8 @@
         <v>414.09</v>
       </c>
       <c r="H99">
-        <f>IF(D99=E99,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
         <v>412.42</v>
@@ -3119,8 +3119,8 @@
         <v>411.09</v>
       </c>
       <c r="H100">
-        <f>IF(D100=E100,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3146,7 +3146,7 @@
         <v>414.65</v>
       </c>
       <c r="H101">
-        <f>IF(D101=E101,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
         <v>420.02</v>
       </c>
       <c r="H102">
-        <f>IF(D102=E102,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>422.03</v>
@@ -3200,8 +3200,8 @@
         <v>420.18</v>
       </c>
       <c r="H103">
-        <f>IF(D103=E103,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
         <v>418.28</v>
@@ -3227,8 +3227,8 @@
         <v>417.85</v>
       </c>
       <c r="H104">
-        <f>IF(D104=E104,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <v>418.09</v>
@@ -3254,8 +3254,8 @@
         <v>421.82</v>
       </c>
       <c r="H105">
-        <f>IF(D105=E105,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3272,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
         <v>424.5</v>
@@ -3281,8 +3281,8 @@
         <v>427.92</v>
       </c>
       <c r="H106">
-        <f>IF(D106=E106,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <v>428.28</v>
@@ -3308,8 +3308,8 @@
         <v>427.1</v>
       </c>
       <c r="H107">
-        <f>IF(D107=E107,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -3335,7 +3335,7 @@
         <v>428.03</v>
       </c>
       <c r="H108">
-        <f>IF(D108=E108,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
         <v>428.44</v>
@@ -3362,8 +3362,8 @@
         <v>426.55</v>
       </c>
       <c r="H109">
-        <f>IF(D109=E109,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -3389,7 +3389,7 @@
         <v>429.13</v>
       </c>
       <c r="H110">
-        <f>IF(D110=E110,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
         <v>429.9</v>
       </c>
       <c r="H111">
-        <f>IF(D111=E111,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>430.92</v>
@@ -3443,8 +3443,8 @@
         <v>433.8</v>
       </c>
       <c r="H112">
-        <f>IF(D112=E112,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3461,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
         <v>435.32</v>
@@ -3470,8 +3470,8 @@
         <v>436.66</v>
       </c>
       <c r="H113">
-        <f>IF(D113=E113,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -3497,7 +3497,7 @@
         <v>437.18</v>
       </c>
       <c r="H114">
-        <f>IF(D114=E114,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
         <v>442.6</v>
       </c>
       <c r="H115">
-        <f>IF(D115=E115,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>443.02</v>
@@ -3551,8 +3551,8 @@
         <v>439.46</v>
       </c>
       <c r="H116">
-        <f>IF(D116=E116,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
         <v>437.45</v>
@@ -3578,8 +3578,8 @@
         <v>437.18</v>
       </c>
       <c r="H117">
-        <f>IF(D117=E117,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>436.16</v>
@@ -3605,8 +3605,8 @@
         <v>434.94</v>
       </c>
       <c r="H118">
-        <f>IF(D118=E118,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -3623,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
         <v>433.95</v>
@@ -3632,8 +3632,8 @@
         <v>436.51</v>
       </c>
       <c r="H119">
-        <f>IF(D119=E119,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -3659,7 +3659,7 @@
         <v>433.21</v>
       </c>
       <c r="H120">
-        <f>IF(D120=E120,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>432.62</v>
@@ -3686,8 +3686,8 @@
         <v>431.44</v>
       </c>
       <c r="H121">
-        <f>IF(D121=E121,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -3704,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
         <v>432.35</v>
@@ -3713,8 +3713,8 @@
         <v>436.17</v>
       </c>
       <c r="H122">
-        <f>IF(D122=E122,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -3740,7 +3740,7 @@
         <v>436.39</v>
       </c>
       <c r="H123">
-        <f>IF(D123=E123,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
         <v>438.11</v>
       </c>
       <c r="H124">
-        <f>IF(D124=E124,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
         <v>443.28</v>
       </c>
       <c r="H125">
-        <f>IF(D125=E125,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
         <v>443.79</v>
       </c>
       <c r="H126">
-        <f>IF(D126=E126,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
         <v>443.13</v>
       </c>
       <c r="H127">
-        <f>IF(D127=E127,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
         <v>439.66</v>
       </c>
       <c r="H128">
-        <f>IF(D128=E128,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
         <v>438.63</v>
@@ -3902,8 +3902,8 @@
         <v>438.55</v>
       </c>
       <c r="H129">
-        <f>IF(D129=E129,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -3920,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
         <v>438.18</v>
@@ -3929,8 +3929,8 @@
         <v>439.66</v>
       </c>
       <c r="H130">
-        <f>IF(D130=E130,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -3956,7 +3956,7 @@
         <v>442.46</v>
       </c>
       <c r="H131">
-        <f>IF(D131=E131,1,0)</f>
+        <f t="shared" ref="H131:H194" si="2">IF(D131=E131,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>446.39</v>
@@ -3983,8 +3983,8 @@
         <v>446.02</v>
       </c>
       <c r="H132">
-        <f>IF(D132=E132,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -4001,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
         <v>447.9</v>
@@ -4010,8 +4010,8 @@
         <v>449.56</v>
       </c>
       <c r="H133">
-        <f>IF(D133=E133,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -4037,7 +4037,7 @@
         <v>449.28</v>
       </c>
       <c r="H134">
-        <f>IF(D134=E134,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
         <v>450.84</v>
       </c>
       <c r="H135">
-        <f>IF(D135=E135,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>450.5</v>
@@ -4091,8 +4091,8 @@
         <v>454.19</v>
       </c>
       <c r="H136">
-        <f>IF(D136=E136,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -4109,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
         <v>455.01</v>
@@ -4118,8 +4118,8 @@
         <v>455.2</v>
       </c>
       <c r="H137">
-        <f>IF(D137=E137,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>454.17</v>
@@ -4145,8 +4145,8 @@
         <v>452.18</v>
       </c>
       <c r="H138">
-        <f>IF(D138=E138,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
         <v>453.96</v>
@@ -4172,8 +4172,8 @@
         <v>452.18</v>
       </c>
       <c r="H139">
-        <f>IF(D139=E139,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -4199,7 +4199,7 @@
         <v>454.2</v>
       </c>
       <c r="H140">
-        <f>IF(D140=E140,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <v>453.92</v>
@@ -4226,8 +4226,8 @@
         <v>455.44</v>
       </c>
       <c r="H141">
-        <f>IF(D141=E141,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -4253,7 +4253,7 @@
         <v>455.51</v>
       </c>
       <c r="H142">
-        <f>IF(D142=E142,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
         <v>459.02</v>
@@ -4280,8 +4280,8 @@
         <v>452.49</v>
       </c>
       <c r="H143">
-        <f>IF(D143=E143,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -4307,7 +4307,7 @@
         <v>456.92</v>
       </c>
       <c r="H144">
-        <f>IF(D144=E144,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
         <v>457.79</v>
       </c>
       <c r="H145">
-        <f>IF(D145=E145,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
         <v>456.48</v>
       </c>
       <c r="H146">
-        <f>IF(D146=E146,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
         <v>453.25</v>
@@ -4388,8 +4388,8 @@
         <v>450.13</v>
       </c>
       <c r="H147">
-        <f>IF(D147=E147,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
         <v>448.04</v>
@@ -4415,8 +4415,8 @@
         <v>448.84</v>
       </c>
       <c r="H148">
-        <f>IF(D148=E148,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -4442,7 +4442,7 @@
         <v>446.81</v>
       </c>
       <c r="H149">
-        <f>IF(D149=E149,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
         <v>448.71</v>
@@ -4469,8 +4469,8 @@
         <v>450.71</v>
       </c>
       <c r="H150">
-        <f>IF(D150=E150,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -4496,7 +4496,7 @@
         <v>448.75</v>
       </c>
       <c r="H151">
-        <f>IF(D151=E151,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
         <v>449.03</v>
@@ -4523,8 +4523,8 @@
         <v>445.75</v>
       </c>
       <c r="H152">
-        <f>IF(D152=E152,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
         <v>448.19</v>
@@ -4550,8 +4550,8 @@
         <v>445.91</v>
       </c>
       <c r="H153">
-        <f>IF(D153=E153,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
         <v>443.97</v>
@@ -4577,8 +4577,8 @@
         <v>445.65</v>
       </c>
       <c r="H154">
-        <f>IF(D154=E154,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -4604,7 +4604,7 @@
         <v>448.11</v>
       </c>
       <c r="H155">
-        <f>IF(D155=E155,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
         <v>442.89</v>
       </c>
       <c r="H156">
-        <f>IF(D156=E156,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
         <v>442.46</v>
@@ -4658,8 +4658,8 @@
         <v>439.64</v>
       </c>
       <c r="H157">
-        <f>IF(D157=E157,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -4685,7 +4685,7 @@
         <v>436.29</v>
       </c>
       <c r="H158">
-        <f>IF(D158=E158,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
         <v>436.5</v>
       </c>
       <c r="H159">
-        <f>IF(D159=E159,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4739,7 +4739,7 @@
         <v>439.34</v>
       </c>
       <c r="H160">
-        <f>IF(D160=E160,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
         <v>438.15</v>
       </c>
       <c r="H161">
-        <f>IF(D161=E161,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4784,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
         <v>439.25</v>
@@ -4793,8 +4793,8 @@
         <v>443.03</v>
       </c>
       <c r="H162">
-        <f>IF(D162=E162,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -4820,7 +4820,7 @@
         <v>436.89</v>
       </c>
       <c r="H163">
-        <f>IF(D163=E163,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
         <v>439.97</v>
       </c>
       <c r="H164">
-        <f>IF(D164=E164,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4865,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <v>442.24</v>
@@ -4874,8 +4874,8 @@
         <v>442.76</v>
       </c>
       <c r="H165">
-        <f>IF(D165=E165,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -4892,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
         <v>442.65</v>
@@ -4901,8 +4901,8 @@
         <v>449.16</v>
       </c>
       <c r="H166">
-        <f>IF(D166=E166,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -4928,7 +4928,7 @@
         <v>451.01</v>
       </c>
       <c r="H167">
-        <f>IF(D167=E167,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
         <v>451.65</v>
@@ -4955,8 +4955,8 @@
         <v>450.35</v>
       </c>
       <c r="H168">
-        <f>IF(D168=E168,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -4982,7 +4982,7 @@
         <v>451.19</v>
       </c>
       <c r="H169">
-        <f>IF(D169=E169,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
         <v>449.24</v>
       </c>
       <c r="H170">
-        <f>IF(D170=E170,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
         <v>448.4</v>
@@ -5036,8 +5036,8 @@
         <v>446.22</v>
       </c>
       <c r="H171">
-        <f>IF(D171=E171,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -5063,7 +5063,7 @@
         <v>444.85</v>
       </c>
       <c r="H172">
-        <f>IF(D172=E172,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5090,7 +5090,7 @@
         <v>445.52</v>
       </c>
       <c r="H173">
-        <f>IF(D173=E173,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5117,7 +5117,7 @@
         <v>448.45</v>
       </c>
       <c r="H174">
-        <f>IF(D174=E174,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
         <v>446.95</v>
@@ -5144,8 +5144,8 @@
         <v>445.99</v>
       </c>
       <c r="H175">
-        <f>IF(D175=E175,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
         <v>446.22</v>
@@ -5171,8 +5171,8 @@
         <v>446.51</v>
       </c>
       <c r="H176">
-        <f>IF(D176=E176,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -5198,7 +5198,7 @@
         <v>450.36</v>
       </c>
       <c r="H177">
-        <f>IF(D177=E177,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
         <v>443.37</v>
       </c>
       <c r="H178">
-        <f>IF(D178=E178,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
         <v>443.63</v>
       </c>
       <c r="H179">
-        <f>IF(D179=E179,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
         <v>442.71</v>
       </c>
       <c r="H180">
-        <f>IF(D180=E180,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
         <v>438.64</v>
       </c>
       <c r="H181">
-        <f>IF(D181=E181,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
         <v>431.39</v>
       </c>
       <c r="H182">
-        <f>IF(D182=E182,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
         <v>432.45</v>
@@ -5360,8 +5360,8 @@
         <v>430.42</v>
       </c>
       <c r="H183">
-        <f>IF(D183=E183,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -5378,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
         <v>429.17</v>
@@ -5387,8 +5387,8 @@
         <v>432.23</v>
       </c>
       <c r="H184">
-        <f>IF(D184=E184,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
         <v>429.09</v>
@@ -5414,8 +5414,8 @@
         <v>425.88</v>
       </c>
       <c r="H185">
-        <f>IF(D185=E185,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -5441,7 +5441,7 @@
         <v>426.05</v>
       </c>
       <c r="H186">
-        <f>IF(D186=E186,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
         <v>425.48</v>
@@ -5468,8 +5468,8 @@
         <v>428.52</v>
       </c>
       <c r="H187">
-        <f>IF(D187=E187,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -5495,7 +5495,7 @@
         <v>427.48</v>
       </c>
       <c r="H188">
-        <f>IF(D188=E188,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5522,7 +5522,7 @@
         <v>427.31</v>
       </c>
       <c r="H189">
-        <f>IF(D189=E189,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
         <v>425.06</v>
@@ -5549,8 +5549,8 @@
         <v>421.59</v>
       </c>
       <c r="H190">
-        <f>IF(D190=E190,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -5567,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
         <v>422.07</v>
@@ -5576,8 +5576,8 @@
         <v>424.66</v>
       </c>
       <c r="H191">
-        <f>IF(D191=E191,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -5603,7 +5603,7 @@
         <v>424.5</v>
       </c>
       <c r="H192">
-        <f>IF(D192=E192,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
         <v>421.97</v>
@@ -5630,8 +5630,8 @@
         <v>429.54</v>
       </c>
       <c r="H193">
-        <f>IF(D193=E193,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -5648,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
         <v>427.58</v>
@@ -5657,8 +5657,8 @@
         <v>432.29</v>
       </c>
       <c r="H194">
-        <f>IF(D194=E194,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -5684,7 +5684,7 @@
         <v>434.54</v>
       </c>
       <c r="H195">
-        <f>IF(D195=E195,1,0)</f>
+        <f t="shared" ref="H195:H258" si="3">IF(D195=E195,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
         <v>436.32</v>
       </c>
       <c r="H196">
-        <f>IF(D196=E196,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5738,7 +5738,7 @@
         <v>433.66</v>
       </c>
       <c r="H197">
-        <f>IF(D197=E197,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
         <v>435.21</v>
@@ -5765,8 +5765,8 @@
         <v>431.5</v>
       </c>
       <c r="H198">
-        <f>IF(D198=E198,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -5783,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
         <v>433.82</v>
@@ -5792,8 +5792,8 @@
         <v>436.04</v>
       </c>
       <c r="H199">
-        <f>IF(D199=E199,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -5819,7 +5819,7 @@
         <v>436.02</v>
       </c>
       <c r="H200">
-        <f>IF(D200=E200,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
         <v>430.21</v>
       </c>
       <c r="H201">
-        <f>IF(D201=E201,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
         <v>430.95</v>
@@ -5873,8 +5873,8 @@
         <v>426.43</v>
       </c>
       <c r="H202">
-        <f>IF(D202=E202,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
         <v>425.98</v>
@@ -5900,8 +5900,8 @@
         <v>421.19</v>
       </c>
       <c r="H203">
-        <f>IF(D203=E203,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -5927,7 +5927,7 @@
         <v>420.46</v>
       </c>
       <c r="H204">
-        <f>IF(D204=E204,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5954,7 +5954,7 @@
         <v>423.63</v>
       </c>
       <c r="H205">
-        <f>IF(D205=E205,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5981,7 +5981,7 @@
         <v>417.55</v>
       </c>
       <c r="H206">
-        <f>IF(D206=E206,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6008,7 +6008,7 @@
         <v>412.55</v>
       </c>
       <c r="H207">
-        <f>IF(D207=E207,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
         <v>410.68</v>
       </c>
       <c r="H208">
-        <f>IF(D208=E208,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6062,7 +6062,7 @@
         <v>415.59</v>
       </c>
       <c r="H209">
-        <f>IF(D209=E209,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
         <v>418.2</v>
       </c>
       <c r="H210">
-        <f>IF(D210=E210,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6116,7 +6116,7 @@
         <v>422.66</v>
       </c>
       <c r="H211">
-        <f>IF(D211=E211,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6143,7 +6143,7 @@
         <v>430.76</v>
       </c>
       <c r="H212">
-        <f>IF(D212=E212,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6170,7 +6170,7 @@
         <v>434.69</v>
       </c>
       <c r="H213">
-        <f>IF(D213=E213,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
         <v>435.69</v>
       </c>
       <c r="H214">
-        <f>IF(D214=E214,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6224,7 +6224,7 @@
         <v>436.93</v>
       </c>
       <c r="H215">
-        <f>IF(D215=E215,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6242,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
         <v>437.55</v>
@@ -6251,8 +6251,8 @@
         <v>437.25</v>
       </c>
       <c r="H216">
-        <f>IF(D216=E216,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
         <v>438.43</v>
@@ -6278,8 +6278,8 @@
         <v>433.84</v>
       </c>
       <c r="H217">
-        <f>IF(D217=E217,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -6305,7 +6305,7 @@
         <v>440.61</v>
       </c>
       <c r="H218">
-        <f>IF(D218=E218,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
         <v>440.19</v>
       </c>
       <c r="H219">
-        <f>IF(D219=E219,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6359,7 +6359,7 @@
         <v>448.73</v>
       </c>
       <c r="H220">
-        <f>IF(D220=E220,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
         <v>450.11</v>
@@ -6386,8 +6386,8 @@
         <v>449.68</v>
       </c>
       <c r="H221">
-        <f>IF(D221=E221,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -6413,7 +6413,7 @@
         <v>450.23</v>
       </c>
       <c r="H222">
-        <f>IF(D222=E222,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
         <v>450.24</v>
@@ -6440,8 +6440,8 @@
         <v>450.79</v>
       </c>
       <c r="H223">
-        <f>IF(D223=E223,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -6467,7 +6467,7 @@
         <v>454.26</v>
       </c>
       <c r="H224">
-        <f>IF(D224=E224,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6494,7 +6494,7 @@
         <v>453.27</v>
       </c>
       <c r="H225">
-        <f>IF(D225=E225,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
         <v>455.02</v>
       </c>
       <c r="H226">
-        <f>IF(D226=E226,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6548,7 +6548,7 @@
         <v>455.3</v>
       </c>
       <c r="H227">
-        <f>IF(D227=E227,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6566,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
         <v>454.65</v>
@@ -6575,8 +6575,8 @@
         <v>454.48</v>
       </c>
       <c r="H228">
-        <f>IF(D228=E228,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
@@ -6593,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
         <v>454.08</v>
@@ -6602,8 +6602,8 @@
         <v>454.93</v>
       </c>
       <c r="H229">
-        <f>IF(D229=E229,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
@@ -6629,7 +6629,7 @@
         <v>454.61</v>
       </c>
       <c r="H230">
-        <f>IF(D230=E230,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
         <v>455.48</v>
@@ -6656,8 +6656,8 @@
         <v>456.4</v>
       </c>
       <c r="H231">
-        <f>IF(D231=E231,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -6683,7 +6683,7 @@
         <v>459.1</v>
       </c>
       <c r="H232">
-        <f>IF(D232=E232,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6701,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
         <v>455.6</v>
@@ -6710,8 +6710,8 @@
         <v>456.69</v>
       </c>
       <c r="H233">
-        <f>IF(D233=E233,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -6737,7 +6737,7 @@
         <v>456.6</v>
       </c>
       <c r="H234">
-        <f>IF(D234=E234,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
         <v>458.81</v>
@@ -6764,8 +6764,8 @@
         <v>454.76</v>
       </c>
       <c r="H235">
-        <f>IF(D235=E235,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -6791,7 +6791,7 @@
         <v>458.23</v>
       </c>
       <c r="H236">
-        <f>IF(D236=E236,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6809,7 +6809,7 @@
         <v>1</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
         <v>457.46</v>
@@ -6818,8 +6818,8 @@
         <v>460.2</v>
       </c>
       <c r="H237">
-        <f>IF(D237=E237,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -6845,7 +6845,7 @@
         <v>461.99</v>
       </c>
       <c r="H238">
-        <f>IF(D238=E238,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6872,7 +6872,7 @@
         <v>464.1</v>
       </c>
       <c r="H239">
-        <f>IF(D239=E239,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
         <v>464.49</v>
@@ -6899,8 +6899,8 @@
         <v>470.5</v>
       </c>
       <c r="H240">
-        <f>IF(D240=E240,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -6926,7 +6926,7 @@
         <v>472.01</v>
       </c>
       <c r="H241">
-        <f>IF(D241=E241,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6953,7 +6953,7 @@
         <v>469.33</v>
       </c>
       <c r="H242">
-        <f>IF(D242=E242,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
         <v>470.98</v>
@@ -6980,8 +6980,8 @@
         <v>471.97</v>
       </c>
       <c r="H243">
-        <f>IF(D243=E243,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -7007,7 +7007,7 @@
         <v>474.84</v>
       </c>
       <c r="H244">
-        <f>IF(D244=E244,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7034,7 +7034,7 @@
         <v>468.26</v>
       </c>
       <c r="H245">
-        <f>IF(D245=E245,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7061,7 +7061,7 @@
         <v>472.7</v>
       </c>
       <c r="H246">
-        <f>IF(D246=E246,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
         <v>473.86</v>
@@ -7088,8 +7088,8 @@
         <v>473.65</v>
       </c>
       <c r="H247">
-        <f>IF(D247=E247,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -7115,7 +7115,7 @@
         <v>475.65</v>
       </c>
       <c r="H248">
-        <f>IF(D248=E248,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7142,7 +7142,7 @@
         <v>476.51</v>
       </c>
       <c r="H249">
-        <f>IF(D249=E249,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7169,7 +7169,7 @@
         <v>476.69</v>
       </c>
       <c r="H250">
-        <f>IF(D250=E250,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7196,7 +7196,7 @@
         <v>475.31</v>
       </c>
       <c r="H251">
-        <f>IF(D251=E251,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7214,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
         <v>472.16</v>
@@ -7223,8 +7223,8 @@
         <v>472.65</v>
       </c>
       <c r="H252">
-        <f>IF(D252=E252,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
@@ -7250,7 +7250,7 @@
         <v>468.79</v>
       </c>
       <c r="H253">
-        <f>IF(D253=E253,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
         <v>468.3</v>
@@ -7277,8 +7277,8 @@
         <v>467.28</v>
       </c>
       <c r="H254">
-        <f>IF(D254=E254,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -7295,7 +7295,7 @@
         <v>1</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
         <v>467.49</v>
@@ -7304,8 +7304,8 @@
         <v>467.92</v>
       </c>
       <c r="H255">
-        <f>IF(D255=E255,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -7331,7 +7331,7 @@
         <v>474.6</v>
       </c>
       <c r="H256">
-        <f>IF(D256=E256,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7358,7 +7358,7 @@
         <v>473.88</v>
       </c>
       <c r="H257">
-        <f>IF(D257=E257,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7385,7 +7385,7 @@
         <v>476.56</v>
       </c>
       <c r="H258">
-        <f>IF(D258=E258,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7412,7 +7412,7 @@
         <v>476.35</v>
       </c>
       <c r="H259">
-        <f>IF(D259=E259,1,0)</f>
+        <f t="shared" ref="H259:H322" si="4">IF(D259=E259,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="E260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F260">
         <v>477.84</v>
@@ -7439,8 +7439,8 @@
         <v>476.68</v>
       </c>
       <c r="H260">
-        <f>IF(D260=E260,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -7466,7 +7466,7 @@
         <v>474.93</v>
       </c>
       <c r="H261">
-        <f>IF(D261=E261,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7493,7 +7493,7 @@
         <v>472.29</v>
       </c>
       <c r="H262">
-        <f>IF(D262=E262,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7520,7 +7520,7 @@
         <v>476.49</v>
       </c>
       <c r="H263">
-        <f>IF(D263=E263,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7547,7 +7547,7 @@
         <v>482.43</v>
       </c>
       <c r="H264">
-        <f>IF(D264=E264,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7574,7 +7574,7 @@
         <v>483.45</v>
       </c>
       <c r="H265">
-        <f>IF(D265=E265,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7592,7 +7592,7 @@
         <v>1</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F266">
         <v>484.01</v>
@@ -7601,8 +7601,8 @@
         <v>484.86</v>
       </c>
       <c r="H266">
-        <f>IF(D266=E266,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="E267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F267">
         <v>487.81</v>
@@ -7628,8 +7628,8 @@
         <v>485.39</v>
       </c>
       <c r="H267">
-        <f>IF(D267=E267,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
@@ -7646,7 +7646,7 @@
         <v>1</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F268">
         <v>487.57499999999999</v>
@@ -7655,8 +7655,8 @@
         <v>488.03</v>
       </c>
       <c r="H268">
-        <f>IF(D268=E268,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -7682,7 +7682,7 @@
         <v>487.41</v>
       </c>
       <c r="H269">
-        <f>IF(D269=E269,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7709,7 +7709,7 @@
         <v>491.27</v>
       </c>
       <c r="H270">
-        <f>IF(D270=E270,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
         <v>1</v>
       </c>
       <c r="E271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F271">
         <v>490.56</v>
@@ -7736,8 +7736,8 @@
         <v>490.89</v>
       </c>
       <c r="H271">
-        <f>IF(D271=E271,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272">
         <v>488.62</v>
@@ -7763,8 +7763,8 @@
         <v>482.88</v>
       </c>
       <c r="H272">
-        <f>IF(D272=E272,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
@@ -7781,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="E273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F273">
         <v>484.63</v>
@@ -7790,8 +7790,8 @@
         <v>489.2</v>
       </c>
       <c r="H273">
-        <f>IF(D273=E273,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F274">
         <v>489.65</v>
@@ -7817,8 +7817,8 @@
         <v>494.35</v>
       </c>
       <c r="H274">
-        <f>IF(D274=E274,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
@@ -7835,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="E275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275">
         <v>493.69499999999999</v>
@@ -7844,8 +7844,8 @@
         <v>492.55</v>
       </c>
       <c r="H275">
-        <f>IF(D275=E275,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
@@ -7862,7 +7862,7 @@
         <v>1</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276">
         <v>493.52</v>
@@ -7871,8 +7871,8 @@
         <v>493.98</v>
       </c>
       <c r="H276">
-        <f>IF(D276=E276,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
@@ -7889,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="E277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277">
         <v>496.29</v>
@@ -7898,8 +7898,8 @@
         <v>498.1</v>
       </c>
       <c r="H277">
-        <f>IF(D277=E277,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
@@ -7916,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278">
         <v>498.1</v>
@@ -7925,8 +7925,8 @@
         <v>498.32</v>
       </c>
       <c r="H278">
-        <f>IF(D278=E278,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -7952,7 +7952,7 @@
         <v>501.2</v>
       </c>
       <c r="H279">
-        <f>IF(D279=E279,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
         <v>500.98</v>
       </c>
       <c r="H280">
-        <f>IF(D280=E280,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="E281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F281">
         <v>494.53</v>
@@ -8006,8 +8006,8 @@
         <v>494.08</v>
       </c>
       <c r="H281">
-        <f>IF(D281=E281,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -8024,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F282">
         <v>496.79</v>
@@ -8033,8 +8033,8 @@
         <v>498.57</v>
       </c>
       <c r="H282">
-        <f>IF(D282=E282,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -8060,7 +8060,7 @@
         <v>502.01</v>
       </c>
       <c r="H283">
-        <f>IF(D283=E283,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="E284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F284">
         <v>501.7</v>
@@ -8087,8 +8087,8 @@
         <v>499.51</v>
       </c>
       <c r="H284">
-        <f>IF(D284=E284,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F285">
         <v>497.72</v>
@@ -8114,8 +8114,8 @@
         <v>496.76</v>
       </c>
       <c r="H285">
-        <f>IF(D285=E285,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
@@ -8141,7 +8141,7 @@
         <v>497.21</v>
       </c>
       <c r="H286">
-        <f>IF(D286=E286,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8159,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="E287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F287">
         <v>504.01</v>
@@ -8168,8 +8168,8 @@
         <v>507.5</v>
       </c>
       <c r="H287">
-        <f>IF(D287=E287,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="E288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288">
         <v>509.27</v>
@@ -8195,8 +8195,8 @@
         <v>507.85</v>
       </c>
       <c r="H288">
-        <f>IF(D288=E288,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="E289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F289">
         <v>508.3</v>
@@ -8222,8 +8222,8 @@
         <v>505.99</v>
       </c>
       <c r="H289">
-        <f>IF(D289=E289,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
@@ -8240,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F290">
         <v>506.7</v>
@@ -8249,8 +8249,8 @@
         <v>506.93</v>
       </c>
       <c r="H290">
-        <f>IF(D290=E290,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
@@ -8276,7 +8276,7 @@
         <v>506.26</v>
       </c>
       <c r="H291">
-        <f>IF(D291=E291,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8303,7 +8303,7 @@
         <v>508.08</v>
       </c>
       <c r="H292">
-        <f>IF(D292=E292,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8321,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="E293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F293">
         <v>508.98</v>
@@ -8330,8 +8330,8 @@
         <v>512.85</v>
       </c>
       <c r="H293">
-        <f>IF(D293=E293,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
@@ -8348,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F294">
         <v>512.03</v>
@@ -8357,8 +8357,8 @@
         <v>512.29999999999995</v>
       </c>
       <c r="H294">
-        <f>IF(D294=E294,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
@@ -8384,7 +8384,7 @@
         <v>507.18</v>
       </c>
       <c r="H295">
-        <f>IF(D295=E295,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
         <v>509.75</v>
       </c>
       <c r="H296">
-        <f>IF(D296=E296,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8438,7 +8438,7 @@
         <v>514.80999999999995</v>
       </c>
       <c r="H297">
-        <f>IF(D297=E297,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8456,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F298">
         <v>515.46</v>
@@ -8465,8 +8465,8 @@
         <v>511.72</v>
       </c>
       <c r="H298">
-        <f>IF(D298=E298,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
@@ -8483,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="E299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F299">
         <v>510.48</v>
@@ -8492,8 +8492,8 @@
         <v>511.28</v>
       </c>
       <c r="H299">
-        <f>IF(D299=E299,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
@@ -8519,7 +8519,7 @@
         <v>516.78</v>
       </c>
       <c r="H300">
-        <f>IF(D300=E300,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F301">
         <v>517.11</v>
@@ -8546,8 +8546,8 @@
         <v>515.97</v>
       </c>
       <c r="H301">
-        <f>IF(D301=E301,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F302">
         <v>516.97</v>
@@ -8573,8 +8573,8 @@
         <v>514.95000000000005</v>
       </c>
       <c r="H302">
-        <f>IF(D302=E302,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -8600,7 +8600,7 @@
         <v>509.83</v>
       </c>
       <c r="H303">
-        <f>IF(D303=E303,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8627,7 +8627,7 @@
         <v>512.86</v>
       </c>
       <c r="H304">
-        <f>IF(D304=E304,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8645,7 +8645,7 @@
         <v>1</v>
       </c>
       <c r="E305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F305">
         <v>512.15</v>
@@ -8654,8 +8654,8 @@
         <v>515.71</v>
       </c>
       <c r="H305">
-        <f>IF(D305=E305,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -8681,7 +8681,7 @@
         <v>520.48</v>
       </c>
       <c r="H306">
-        <f>IF(D306=E306,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8708,7 +8708,7 @@
         <v>522.20000000000005</v>
       </c>
       <c r="H307">
-        <f>IF(D307=E307,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8735,7 +8735,7 @@
         <v>521.21</v>
       </c>
       <c r="H308">
-        <f>IF(D308=E308,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8762,7 +8762,7 @@
         <v>519.77</v>
       </c>
       <c r="H309">
-        <f>IF(D309=E309,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8789,7 +8789,7 @@
         <v>518.80999999999995</v>
       </c>
       <c r="H310">
-        <f>IF(D310=E310,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8816,7 +8816,7 @@
         <v>523.16999999999996</v>
       </c>
       <c r="H311">
-        <f>IF(D311=E311,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
         <v>523.07000000000005</v>
       </c>
       <c r="H312">
-        <f>IF(D312=E312,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
         <v>522.16</v>
       </c>
       <c r="H313">
-        <f>IF(D313=E313,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8888,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="E314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F314">
         <v>518.24</v>
@@ -8897,8 +8897,8 @@
         <v>518.84</v>
       </c>
       <c r="H314">
-        <f>IF(D314=E314,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -8924,7 +8924,7 @@
         <v>519.41</v>
       </c>
       <c r="H315">
-        <f>IF(D315=E315,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
         <v>513.07000000000005</v>
       </c>
       <c r="H316">
-        <f>IF(D316=E316,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8978,7 +8978,7 @@
         <v>518.42999999999995</v>
       </c>
       <c r="H317">
-        <f>IF(D317=E317,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="E318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F318">
         <v>519.15</v>
@@ -9005,8 +9005,8 @@
         <v>518.72</v>
       </c>
       <c r="H318">
-        <f>IF(D318=E318,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -9032,7 +9032,7 @@
         <v>519.32000000000005</v>
       </c>
       <c r="H319">
-        <f>IF(D319=E319,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9059,7 +9059,7 @@
         <v>514.12</v>
       </c>
       <c r="H320">
-        <f>IF(D320=E320,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="E321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F321">
         <v>515.67999999999995</v>
@@ -9086,8 +9086,8 @@
         <v>518</v>
       </c>
       <c r="H321">
-        <f>IF(D321=E321,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
@@ -9113,7 +9113,7 @@
         <v>510.85</v>
       </c>
       <c r="H322">
-        <f>IF(D322=E322,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
         <v>504.45</v>
       </c>
       <c r="H323">
-        <f>IF(D323=E323,1,0)</f>
+        <f t="shared" ref="H323:H386" si="5">IF(D323=E323,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F324">
         <v>504.94</v>
@@ -9167,8 +9167,8 @@
         <v>503.53</v>
       </c>
       <c r="H324">
-        <f>IF(D324=E324,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F325">
         <v>506.05</v>
@@ -9194,8 +9194,8 @@
         <v>500.55</v>
       </c>
       <c r="H325">
-        <f>IF(D325=E325,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
@@ -9221,7 +9221,7 @@
         <v>499.52</v>
       </c>
       <c r="H326">
-        <f>IF(D326=E326,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="E327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F327">
         <v>499.44</v>
@@ -9248,8 +9248,8 @@
         <v>495.16</v>
       </c>
       <c r="H327">
-        <f>IF(D327=E327,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -9275,7 +9275,7 @@
         <v>499.72</v>
       </c>
       <c r="H328">
-        <f>IF(D328=E328,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9302,7 +9302,7 @@
         <v>505.65</v>
       </c>
       <c r="H329">
-        <f>IF(D329=E329,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9329,7 +9329,7 @@
         <v>505.41</v>
       </c>
       <c r="H330">
-        <f>IF(D330=E330,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9356,7 +9356,7 @@
         <v>503.49</v>
       </c>
       <c r="H331">
-        <f>IF(D331=E331,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9383,7 +9383,7 @@
         <v>508.26</v>
       </c>
       <c r="H332">
-        <f>IF(D332=E332,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9410,7 +9410,7 @@
         <v>510.06</v>
       </c>
       <c r="H333">
-        <f>IF(D333=E333,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9437,7 +9437,7 @@
         <v>501.98</v>
       </c>
       <c r="H334">
-        <f>IF(D334=E334,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
         <v>500.35</v>
       </c>
       <c r="H335">
-        <f>IF(D335=E335,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
         <v>505.03</v>
       </c>
       <c r="H336">
-        <f>IF(D336=E336,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9518,7 +9518,7 @@
         <v>511.29</v>
       </c>
       <c r="H337">
-        <f>IF(D337=E337,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9536,7 +9536,7 @@
         <v>1</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F338">
         <v>513.75</v>
@@ -9545,8 +9545,8 @@
         <v>516.57000000000005</v>
       </c>
       <c r="H338">
-        <f>IF(D338=E338,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="E339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F339">
         <v>517.55999999999995</v>
@@ -9572,8 +9572,8 @@
         <v>517.14</v>
       </c>
       <c r="H339">
-        <f>IF(D339=E339,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
@@ -9599,7 +9599,7 @@
         <v>517.19000000000005</v>
       </c>
       <c r="H340">
-        <f>IF(D340=E340,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9617,7 +9617,7 @@
         <v>1</v>
       </c>
       <c r="E341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F341">
         <v>517.38</v>
@@ -9626,8 +9626,8 @@
         <v>520.16999999999996</v>
       </c>
       <c r="H341">
-        <f>IF(D341=E341,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -9653,7 +9653,7 @@
         <v>520.84</v>
       </c>
       <c r="H342">
-        <f>IF(D342=E342,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9671,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="E343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F343">
         <v>522.55999999999995</v>
@@ -9680,8 +9680,8 @@
         <v>520.91</v>
       </c>
       <c r="H343">
-        <f>IF(D343=E343,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
@@ -9707,7 +9707,7 @@
         <v>523.29999999999995</v>
       </c>
       <c r="H344">
-        <f>IF(D344=E344,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9734,7 +9734,7 @@
         <v>529.78</v>
       </c>
       <c r="H345">
-        <f>IF(D345=E345,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9761,7 +9761,7 @@
         <v>528.69000000000005</v>
       </c>
       <c r="H346">
-        <f>IF(D346=E346,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9779,7 +9779,7 @@
         <v>1</v>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F347">
         <v>528.80999999999995</v>
@@ -9788,8 +9788,8 @@
         <v>529.45000000000005</v>
       </c>
       <c r="H347">
-        <f>IF(D347=E347,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
@@ -9815,7 +9815,7 @@
         <v>530.05999999999995</v>
       </c>
       <c r="H348">
-        <f>IF(D348=E348,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
         <v>531.36</v>
       </c>
       <c r="H349">
-        <f>IF(D349=E349,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9869,7 +9869,7 @@
         <v>529.83000000000004</v>
       </c>
       <c r="H350">
-        <f>IF(D350=E350,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="E351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F351">
         <v>532.96</v>
@@ -9896,8 +9896,8 @@
         <v>525.96</v>
       </c>
       <c r="H351">
-        <f>IF(D351=E351,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
@@ -9923,7 +9923,7 @@
         <v>529.44000000000005</v>
       </c>
       <c r="H352">
-        <f>IF(D352=E352,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9950,7 +9950,7 @@
         <v>529.80999999999995</v>
       </c>
       <c r="H353">
-        <f>IF(D353=E353,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9977,7 +9977,7 @@
         <v>526.1</v>
       </c>
       <c r="H354">
-        <f>IF(D354=E354,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10004,7 +10004,7 @@
         <v>522.61</v>
       </c>
       <c r="H355">
-        <f>IF(D355=E355,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10022,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F356">
         <v>523.59</v>
@@ -10031,8 +10031,8 @@
         <v>527.37</v>
       </c>
       <c r="H356">
-        <f>IF(D356=E356,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="E357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F357">
         <v>529.02</v>
@@ -10058,8 +10058,8 @@
         <v>527.79999999999995</v>
       </c>
       <c r="H357">
-        <f>IF(D357=E357,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
@@ -10085,7 +10085,7 @@
         <v>528.39</v>
       </c>
       <c r="H358">
-        <f>IF(D358=E358,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10112,7 +10112,7 @@
         <v>534.66999999999996</v>
       </c>
       <c r="H359">
-        <f>IF(D359=E359,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F360">
         <v>534.98</v>
@@ -10139,8 +10139,8 @@
         <v>534.66</v>
       </c>
       <c r="H360">
-        <f>IF(D360=E360,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
@@ -10166,7 +10166,7 @@
         <v>534.01</v>
       </c>
       <c r="H361">
-        <f>IF(D361=E361,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10193,7 +10193,7 @@
         <v>535.66</v>
       </c>
       <c r="H362">
-        <f>IF(D362=E362,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10220,7 +10220,7 @@
         <v>536.95000000000005</v>
       </c>
       <c r="H363">
-        <f>IF(D363=E363,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="E364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F364">
         <v>541.63</v>
@@ -10247,8 +10247,8 @@
         <v>541.36</v>
       </c>
       <c r="H364">
-        <f>IF(D364=E364,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
@@ -10274,7 +10274,7 @@
         <v>542.45000000000005</v>
       </c>
       <c r="H365">
-        <f>IF(D365=E365,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10292,7 +10292,7 @@
         <v>1</v>
       </c>
       <c r="E366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F366">
         <v>540.88</v>
@@ -10301,8 +10301,8 @@
         <v>542.78</v>
       </c>
       <c r="H366">
-        <f>IF(D366=E366,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
@@ -10319,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="E367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F367">
         <v>542.08000000000004</v>
@@ -10328,8 +10328,8 @@
         <v>547.1</v>
       </c>
       <c r="H367">
-        <f>IF(D367=E367,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
@@ -10346,7 +10346,7 @@
         <v>1</v>
       </c>
       <c r="E368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F368">
         <v>547.16</v>
@@ -10355,8 +10355,8 @@
         <v>548.49</v>
       </c>
       <c r="H368">
-        <f>IF(D368=E368,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -10382,7 +10382,7 @@
         <v>547</v>
       </c>
       <c r="H369">
-        <f>IF(D369=E369,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
         <v>544.51</v>
       </c>
       <c r="H370">
-        <f>IF(D370=E370,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10436,7 +10436,7 @@
         <v>542.74</v>
       </c>
       <c r="H371">
-        <f>IF(D371=E371,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10463,7 +10463,7 @@
         <v>544.83000000000004</v>
       </c>
       <c r="H372">
-        <f>IF(D372=E372,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10490,7 +10490,7 @@
         <v>545.51</v>
       </c>
       <c r="H373">
-        <f>IF(D373=E373,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
         <v>546.37</v>
       </c>
       <c r="H374">
-        <f>IF(D374=E374,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10544,7 +10544,7 @@
         <v>544.22</v>
       </c>
       <c r="H375">
-        <f>IF(D375=E375,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10571,7 +10571,7 @@
         <v>545.34</v>
       </c>
       <c r="H376">
-        <f>IF(D376=E376,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F377">
         <v>543.70000000000005</v>
@@ -10598,8 +10598,8 @@
         <v>549.01</v>
       </c>
       <c r="H377">
-        <f>IF(D377=E377,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
@@ -10625,7 +10625,7 @@
         <v>551.46</v>
       </c>
       <c r="H378">
-        <f>IF(D378=E378,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10652,7 +10652,7 @@
         <v>554.64</v>
       </c>
       <c r="H379">
-        <f>IF(D379=E379,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="E380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F380">
         <v>555.44000000000005</v>
@@ -10679,8 +10679,8 @@
         <v>555.28</v>
       </c>
       <c r="H380">
-        <f>IF(D380=E380,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="E381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F381">
         <v>556.26</v>
@@ -10706,8 +10706,8 @@
         <v>555.82000000000005</v>
       </c>
       <c r="H381">
-        <f>IF(D381=E381,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -10733,7 +10733,7 @@
         <v>561.32000000000005</v>
       </c>
       <c r="H382">
-        <f>IF(D382=E382,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10760,7 +10760,7 @@
         <v>556.48</v>
       </c>
       <c r="H383">
-        <f>IF(D383=E383,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10787,7 +10787,7 @@
         <v>559.99</v>
       </c>
       <c r="H384">
-        <f>IF(D384=E384,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10814,7 +10814,7 @@
         <v>561.53</v>
       </c>
       <c r="H385">
-        <f>IF(D385=E385,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10832,7 +10832,7 @@
         <v>1</v>
       </c>
       <c r="E386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F386">
         <v>562.86500000000001</v>
@@ -10841,8 +10841,8 @@
         <v>564.86</v>
       </c>
       <c r="H386">
-        <f>IF(D386=E386,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
@@ -10868,7 +10868,7 @@
         <v>556.94000000000005</v>
       </c>
       <c r="H387">
-        <f>IF(D387=E387,1,0)</f>
+        <f t="shared" ref="H387:H450" si="6">IF(D387=E387,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10886,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="E388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F388">
         <v>558.51</v>
@@ -10895,8 +10895,8 @@
         <v>552.66</v>
       </c>
       <c r="H388">
-        <f>IF(D388=E388,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
@@ -10922,7 +10922,7 @@
         <v>548.99</v>
       </c>
       <c r="H389">
-        <f>IF(D389=E389,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -10940,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="E390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F390">
         <v>553</v>
@@ -10949,8 +10949,8 @@
         <v>554.65</v>
       </c>
       <c r="H390">
-        <f>IF(D390=E390,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
@@ -10967,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="E391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F391">
         <v>554.54</v>
@@ -10976,8 +10976,8 @@
         <v>553.78</v>
       </c>
       <c r="H391">
-        <f>IF(D391=E391,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
@@ -10994,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="E392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F392">
         <v>548.86</v>
@@ -11003,8 +11003,8 @@
         <v>541.23</v>
       </c>
       <c r="H392">
-        <f>IF(D392=E392,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="E393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F393">
         <v>541.35</v>
@@ -11030,8 +11030,8 @@
         <v>538.41</v>
       </c>
       <c r="H393">
-        <f>IF(D393=E393,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
@@ -11057,7 +11057,7 @@
         <v>544.44000000000005</v>
       </c>
       <c r="H394">
-        <f>IF(D394=E394,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11084,7 +11084,7 @@
         <v>544.76</v>
       </c>
       <c r="H395">
-        <f>IF(D395=E395,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F396">
         <v>546.26</v>
@@ -11111,8 +11111,8 @@
         <v>542</v>
       </c>
       <c r="H396">
-        <f>IF(D396=E396,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
@@ -11129,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="E397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F397">
         <v>548.98</v>
@@ -11138,8 +11138,8 @@
         <v>550.80999999999995</v>
       </c>
       <c r="H397">
-        <f>IF(D397=E397,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
@@ -11165,7 +11165,7 @@
         <v>543.01</v>
       </c>
       <c r="H398">
-        <f>IF(D398=E398,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="E399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F399">
         <v>535.75</v>
@@ -11192,8 +11192,8 @@
         <v>532.9</v>
       </c>
       <c r="H399">
-        <f>IF(D399=E399,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
@@ -11219,7 +11219,7 @@
         <v>517.38</v>
       </c>
       <c r="H400">
-        <f>IF(D400=E400,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11237,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="E401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F401">
         <v>519.22</v>
@@ -11246,8 +11246,8 @@
         <v>522.15</v>
       </c>
       <c r="H401">
-        <f>IF(D401=E401,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -11273,7 +11273,7 @@
         <v>518.66</v>
       </c>
       <c r="H402">
-        <f>IF(D402=E402,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11291,7 +11291,7 @@
         <v>1</v>
       </c>
       <c r="E403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F403">
         <v>523.91</v>
@@ -11300,8 +11300,8 @@
         <v>530.65</v>
       </c>
       <c r="H403">
-        <f>IF(D403=E403,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
@@ -11327,7 +11327,7 @@
         <v>532.99</v>
       </c>
       <c r="H404">
-        <f>IF(D404=E404,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="E405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F405">
         <v>534.21</v>
@@ -11354,8 +11354,8 @@
         <v>533.27</v>
       </c>
       <c r="H405">
-        <f>IF(D405=E405,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
@@ -11372,7 +11372,7 @@
         <v>1</v>
       </c>
       <c r="E406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F406">
         <v>536.53</v>
@@ -11381,8 +11381,8 @@
         <v>542.04</v>
       </c>
       <c r="H406">
-        <f>IF(D406=E406,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
@@ -11408,7 +11408,7 @@
         <v>543.75</v>
       </c>
       <c r="H407">
-        <f>IF(D407=E407,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11426,7 +11426,7 @@
         <v>1</v>
       </c>
       <c r="E408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F408">
         <v>549.5</v>
@@ -11435,8 +11435,8 @@
         <v>553.07000000000005</v>
       </c>
       <c r="H408">
-        <f>IF(D408=E408,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
@@ -11453,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="E409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F409">
         <v>551.41999999999996</v>
@@ -11462,8 +11462,8 @@
         <v>554.30999999999995</v>
       </c>
       <c r="H409">
-        <f>IF(D409=E409,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="E410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F410">
         <v>554.73</v>
@@ -11489,8 +11489,8 @@
         <v>559.61</v>
       </c>
       <c r="H410">
-        <f>IF(D410=E410,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -11507,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F411">
         <v>559.15</v>
@@ -11516,8 +11516,8 @@
         <v>558.70000000000005</v>
       </c>
       <c r="H411">
-        <f>IF(D411=E411,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
@@ -11543,7 +11543,7 @@
         <v>560.62</v>
       </c>
       <c r="H412">
-        <f>IF(D412=E412,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11561,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="E413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F413">
         <v>562.55999999999995</v>
@@ -11570,8 +11570,8 @@
         <v>556.22</v>
       </c>
       <c r="H413">
-        <f>IF(D413=E413,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -11597,7 +11597,7 @@
         <v>562.13</v>
       </c>
       <c r="H414">
-        <f>IF(D414=E414,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11624,7 +11624,7 @@
         <v>560.79</v>
       </c>
       <c r="H415">
-        <f>IF(D415=E415,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11651,7 +11651,7 @@
         <v>561.55999999999995</v>
       </c>
       <c r="H416">
-        <f>IF(D416=E416,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11678,7 +11678,7 @@
         <v>558.29999999999995</v>
       </c>
       <c r="H417">
-        <f>IF(D417=E417,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
         <v>558.35</v>
       </c>
       <c r="H418">
-        <f>IF(D418=E418,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11732,7 +11732,7 @@
         <v>563.67999999999995</v>
       </c>
       <c r="H419">
-        <f>IF(D419=E419,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="E420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F420">
         <v>560.47</v>
@@ -11759,8 +11759,8 @@
         <v>552.08000000000004</v>
       </c>
       <c r="H420">
-        <f>IF(D420=E420,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
@@ -11786,7 +11786,7 @@
         <v>550.95000000000005</v>
       </c>
       <c r="H421">
-        <f>IF(D421=E421,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11804,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="E422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F422">
         <v>550.89</v>
@@ -11813,8 +11813,8 @@
         <v>549.61</v>
       </c>
       <c r="H422">
-        <f>IF(D422=E422,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
@@ -11840,7 +11840,7 @@
         <v>540.36</v>
       </c>
       <c r="H423">
-        <f>IF(D423=E423,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11858,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="E424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F424">
         <v>544.65</v>
@@ -11867,8 +11867,8 @@
         <v>546.41</v>
       </c>
       <c r="H424">
-        <f>IF(D424=E424,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="E425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F425">
         <v>548.36</v>
@@ -11894,8 +11894,8 @@
         <v>548.79</v>
       </c>
       <c r="H425">
-        <f>IF(D425=E425,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
@@ -11912,7 +11912,7 @@
         <v>1</v>
       </c>
       <c r="E426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F426">
         <v>548.70000000000005</v>
@@ -11921,8 +11921,8 @@
         <v>554.41999999999996</v>
       </c>
       <c r="H426">
-        <f>IF(D426=E426,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
@@ -11948,7 +11948,7 @@
         <v>559.09</v>
       </c>
       <c r="H427">
-        <f>IF(D427=E427,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
         <v>562.01</v>
       </c>
       <c r="H428">
-        <f>IF(D428=E428,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -12002,7 +12002,7 @@
         <v>562.84</v>
       </c>
       <c r="H429">
-        <f>IF(D429=E429,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="E430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F430">
         <v>565.1</v>
@@ -12029,8 +12029,8 @@
         <v>563.07000000000005</v>
       </c>
       <c r="H430">
-        <f>IF(D430=E430,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
@@ -12056,7 +12056,7 @@
         <v>561.4</v>
       </c>
       <c r="H431">
-        <f>IF(D431=E431,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -12083,7 +12083,7 @@
         <v>570.98</v>
       </c>
       <c r="H432">
-        <f>IF(D432=E432,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -12101,7 +12101,7 @@
         <v>1</v>
       </c>
       <c r="E433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F433">
         <v>567.84</v>
@@ -12110,8 +12110,8 @@
         <v>568.25</v>
       </c>
       <c r="H433">
-        <f>IF(D433=E433,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
@@ -12128,7 +12128,7 @@
         <v>1</v>
       </c>
       <c r="E434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F434">
         <v>569.34</v>
@@ -12137,8 +12137,8 @@
         <v>569.66999999999996</v>
       </c>
       <c r="H434">
-        <f>IF(D434=E434,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.3">
@@ -12155,7 +12155,7 @@
         <v>1</v>
       </c>
       <c r="E435">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F435">
         <v>570.48</v>
@@ -12164,8 +12164,8 @@
         <v>571.29999999999995</v>
       </c>
       <c r="H435">
-        <f>IF(D435=E435,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
@@ -12182,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="E436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F436">
         <v>571.14</v>
@@ -12191,8 +12191,8 @@
         <v>570.04</v>
       </c>
       <c r="H436">
-        <f>IF(D436=E436,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
@@ -12218,7 +12218,7 @@
         <v>572.29999999999995</v>
       </c>
       <c r="H437">
-        <f>IF(D437=E437,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -12245,7 +12245,7 @@
         <v>571.47</v>
       </c>
       <c r="H438">
-        <f>IF(D438=E438,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -12263,7 +12263,7 @@
         <v>1</v>
       </c>
       <c r="E439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F439">
         <v>570.41999999999996</v>
@@ -12272,8 +12272,8 @@
         <v>573.76</v>
       </c>
       <c r="H439">
-        <f>IF(D439=E439,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
@@ -12299,7 +12299,7 @@
         <v>568.62</v>
       </c>
       <c r="H440">
-        <f>IF(D440=E440,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12317,7 +12317,7 @@
         <v>1</v>
       </c>
       <c r="E441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F441">
         <v>567.71</v>
@@ -12326,8 +12326,8 @@
         <v>568.86</v>
       </c>
       <c r="H441">
-        <f>IF(D441=E441,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
@@ -12353,7 +12353,7 @@
         <v>567.82000000000005</v>
       </c>
       <c r="H442">
-        <f>IF(D442=E442,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12371,7 +12371,7 @@
         <v>1</v>
       </c>
       <c r="E443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F443">
         <v>572.35</v>
@@ -12380,8 +12380,8 @@
         <v>572.98</v>
       </c>
       <c r="H443">
-        <f>IF(D443=E443,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.3">
@@ -12407,7 +12407,7 @@
         <v>567.79999999999995</v>
       </c>
       <c r="H444">
-        <f>IF(D444=E444,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="E445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F445">
         <v>570.41999999999996</v>
@@ -12434,8 +12434,8 @@
         <v>573.16999999999996</v>
       </c>
       <c r="H445">
-        <f>IF(D445=E445,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.3">
@@ -12452,7 +12452,7 @@
         <v>1</v>
       </c>
       <c r="E446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F446">
         <v>573.16</v>
@@ -12461,8 +12461,8 @@
         <v>577.14</v>
       </c>
       <c r="H446">
-        <f>IF(D446=E446,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.3">
@@ -12488,7 +12488,7 @@
         <v>576.13</v>
       </c>
       <c r="H447">
-        <f>IF(D447=E447,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -12506,7 +12506,7 @@
         <v>1</v>
       </c>
       <c r="E448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F448">
         <v>576.04999999999995</v>
@@ -12515,8 +12515,8 @@
         <v>579.58000000000004</v>
       </c>
       <c r="H448">
-        <f>IF(D448=E448,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
@@ -12533,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="E449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F449">
         <v>581.22</v>
@@ -12542,8 +12542,8 @@
         <v>584.32000000000005</v>
       </c>
       <c r="H449">
-        <f>IF(D449=E449,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="E450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F450">
         <v>584.59</v>
@@ -12569,8 +12569,8 @@
         <v>579.78</v>
       </c>
       <c r="H450">
-        <f>IF(D450=E450,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.3">
@@ -12587,7 +12587,7 @@
         <v>1</v>
       </c>
       <c r="E451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F451">
         <v>579.78</v>
@@ -12596,8 +12596,8 @@
         <v>582.29999999999995</v>
       </c>
       <c r="H451">
-        <f>IF(D451=E451,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="H451:H514" si="7">IF(D451=E451,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.3">
@@ -12623,7 +12623,7 @@
         <v>582.35</v>
       </c>
       <c r="H452">
-        <f>IF(D452=E452,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12650,7 +12650,7 @@
         <v>584.59</v>
       </c>
       <c r="H453">
-        <f>IF(D453=E453,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12668,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="E454">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F454">
         <v>583.85</v>
@@ -12677,8 +12677,8 @@
         <v>583.63</v>
       </c>
       <c r="H454">
-        <f>IF(D454=E454,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
@@ -12695,7 +12695,7 @@
         <v>1</v>
       </c>
       <c r="E455">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F455">
         <v>581.04999999999995</v>
@@ -12704,8 +12704,8 @@
         <v>583.32000000000005</v>
       </c>
       <c r="H455">
-        <f>IF(D455=E455,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
@@ -12731,7 +12731,7 @@
         <v>577.99</v>
       </c>
       <c r="H456">
-        <f>IF(D456=E456,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12749,7 +12749,7 @@
         <v>0</v>
       </c>
       <c r="E457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F457">
         <v>579.98</v>
@@ -12758,8 +12758,8 @@
         <v>579.24</v>
       </c>
       <c r="H457">
-        <f>IF(D457=E457,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.3">
@@ -12785,7 +12785,7 @@
         <v>579.04</v>
       </c>
       <c r="H458">
-        <f>IF(D458=E458,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12812,7 +12812,7 @@
         <v>580.83000000000004</v>
       </c>
       <c r="H459">
-        <f>IF(D459=E459,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12839,7 +12839,7 @@
         <v>581.77</v>
       </c>
       <c r="H460">
-        <f>IF(D460=E460,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -12866,7 +12866,7 @@
         <v>580.01</v>
       </c>
       <c r="H461">
-        <f>IF(D461=E461,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12893,7 +12893,7 @@
         <v>568.64</v>
       </c>
       <c r="H462">
-        <f>IF(D462=E462,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12920,7 +12920,7 @@
         <v>571.04</v>
       </c>
       <c r="H463">
-        <f>IF(D463=E463,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12947,7 +12947,7 @@
         <v>569.80999999999995</v>
       </c>
       <c r="H464">
-        <f>IF(D464=E464,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12965,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="E465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F465">
         <v>570.74</v>
@@ -12974,8 +12974,8 @@
         <v>576.70000000000005</v>
       </c>
       <c r="H465">
-        <f>IF(D465=E465,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.3">
@@ -12992,7 +12992,7 @@
         <v>1</v>
       </c>
       <c r="E466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F466">
         <v>589.20000000000005</v>
@@ -13001,8 +13001,8 @@
         <v>591.04</v>
       </c>
       <c r="H466">
-        <f>IF(D466=E466,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.3">
@@ -13019,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="E467">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F467">
         <v>593.08000000000004</v>
@@ -13028,8 +13028,8 @@
         <v>595.61</v>
       </c>
       <c r="H467">
-        <f>IF(D467=E467,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.3">
@@ -13055,7 +13055,7 @@
         <v>598.19000000000005</v>
       </c>
       <c r="H468">
-        <f>IF(D468=E468,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13073,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="E469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F469">
         <v>599.80999999999995</v>
@@ -13082,8 +13082,8 @@
         <v>598.76</v>
       </c>
       <c r="H469">
-        <f>IF(D469=E469,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.3">
@@ -13109,7 +13109,7 @@
         <v>596.9</v>
       </c>
       <c r="H470">
-        <f>IF(D470=E470,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13136,7 +13136,7 @@
         <v>597.19000000000005</v>
       </c>
       <c r="H471">
-        <f>IF(D471=E471,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13163,7 +13163,7 @@
         <v>593.35</v>
       </c>
       <c r="H472">
-        <f>IF(D472=E472,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13190,7 +13190,7 @@
         <v>585.75</v>
       </c>
       <c r="H473">
-        <f>IF(D473=E473,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13217,7 +13217,7 @@
         <v>588.15</v>
       </c>
       <c r="H474">
-        <f>IF(D474=E474,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13244,7 +13244,7 @@
         <v>590.29999999999995</v>
       </c>
       <c r="H475">
-        <f>IF(D475=E475,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
         <v>590.5</v>
       </c>
       <c r="H476">
-        <f>IF(D476=E476,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13289,7 +13289,7 @@
         <v>1</v>
       </c>
       <c r="E477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F477">
         <v>593.4</v>
@@ -13298,8 +13298,8 @@
         <v>593.66999999999996</v>
       </c>
       <c r="H477">
-        <f>IF(D477=E477,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.3">
@@ -13325,7 +13325,7 @@
         <v>595.51</v>
       </c>
       <c r="H478">
-        <f>IF(D478=E478,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13343,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="E479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F479">
         <v>599.52</v>
@@ -13352,8 +13352,8 @@
         <v>597.53</v>
       </c>
       <c r="H479">
-        <f>IF(D479=E479,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.3">
@@ -13379,7 +13379,7 @@
         <v>600.65</v>
       </c>
       <c r="H480">
-        <f>IF(D480=E480,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13406,7 +13406,7 @@
         <v>598.83000000000004</v>
       </c>
       <c r="H481">
-        <f>IF(D481=E481,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13424,7 +13424,7 @@
         <v>1</v>
       </c>
       <c r="E482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F482">
         <v>599.66</v>
@@ -13433,8 +13433,8 @@
         <v>602.54999999999995</v>
       </c>
       <c r="H482">
-        <f>IF(D482=E482,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.3">
@@ -13460,7 +13460,7 @@
         <v>603.63</v>
       </c>
       <c r="H483">
-        <f>IF(D483=E483,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13487,7 +13487,7 @@
         <v>603.91</v>
       </c>
       <c r="H484">
-        <f>IF(D484=E484,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13514,7 +13514,7 @@
         <v>607.66</v>
       </c>
       <c r="H485">
-        <f>IF(D485=E485,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13532,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="E486">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F486">
         <v>607.66</v>
@@ -13541,8 +13541,8 @@
         <v>606.66</v>
       </c>
       <c r="H486">
-        <f>IF(D486=E486,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.3">
@@ -13568,7 +13568,7 @@
         <v>607.80999999999995</v>
       </c>
       <c r="H487">
-        <f>IF(D487=E487,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13595,7 +13595,7 @@
         <v>604.67999999999995</v>
       </c>
       <c r="H488">
-        <f>IF(D488=E488,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13622,7 +13622,7 @@
         <v>602.79999999999995</v>
       </c>
       <c r="H489">
-        <f>IF(D489=E489,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13649,7 +13649,7 @@
         <v>607.46</v>
       </c>
       <c r="H490">
-        <f>IF(D490=E490,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13676,7 +13676,7 @@
         <v>604.33000000000004</v>
       </c>
       <c r="H491">
-        <f>IF(D491=E491,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13703,7 +13703,7 @@
         <v>604.21</v>
       </c>
       <c r="H492">
-        <f>IF(D492=E492,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13721,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="E493">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F493">
         <v>606</v>
@@ -13730,8 +13730,8 @@
         <v>606.79</v>
       </c>
       <c r="H493">
-        <f>IF(D493=E493,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.3">
@@ -13757,7 +13757,7 @@
         <v>604.29</v>
       </c>
       <c r="H494">
-        <f>IF(D494=E494,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="E495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F495">
         <v>603.98</v>
@@ -13784,8 +13784,8 @@
         <v>586.28</v>
       </c>
       <c r="H495">
-        <f>IF(D495=E495,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.3">
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E496">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F496">
         <v>591.36</v>
@@ -13811,8 +13811,8 @@
         <v>586.1</v>
       </c>
       <c r="H496">
-        <f>IF(D496=E496,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.3">
@@ -13838,7 +13838,7 @@
         <v>591.15</v>
       </c>
       <c r="H497">
-        <f>IF(D497=E497,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13865,7 +13865,7 @@
         <v>594.69000000000005</v>
       </c>
       <c r="H498">
-        <f>IF(D498=E498,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13892,7 +13892,7 @@
         <v>601.29999999999995</v>
       </c>
       <c r="H499">
-        <f>IF(D499=E499,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13919,7 +13919,7 @@
         <v>601.34</v>
       </c>
       <c r="H500">
-        <f>IF(D500=E500,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="E501">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F501">
         <v>597.54</v>
@@ -13946,8 +13946,8 @@
         <v>595.01</v>
       </c>
       <c r="H501">
-        <f>IF(D501=E501,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.3">
@@ -13964,7 +13964,7 @@
         <v>1</v>
       </c>
       <c r="E502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F502">
         <v>587.89</v>
@@ -13973,8 +13973,8 @@
         <v>588.22</v>
       </c>
       <c r="H502">
-        <f>IF(D502=E502,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.3">
@@ -14000,7 +14000,7 @@
         <v>586.08000000000004</v>
       </c>
       <c r="H503">
-        <f>IF(D503=E503,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -14018,7 +14018,7 @@
         <v>0</v>
       </c>
       <c r="E504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F504">
         <v>589.39</v>
@@ -14027,8 +14027,8 @@
         <v>584.64</v>
       </c>
       <c r="H504">
-        <f>IF(D504=E504,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.3">
@@ -14045,7 +14045,7 @@
         <v>1</v>
       </c>
       <c r="E505">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F505">
         <v>587.53</v>
@@ -14054,8 +14054,8 @@
         <v>591.95000000000005</v>
       </c>
       <c r="H505">
-        <f>IF(D505=E505,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.3">
@@ -14081,7 +14081,7 @@
         <v>595.36</v>
       </c>
       <c r="H506">
-        <f>IF(D506=E506,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -14099,7 +14099,7 @@
         <v>0</v>
       </c>
       <c r="E507">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F507">
         <v>597.41999999999996</v>
@@ -14108,8 +14108,8 @@
         <v>588.63</v>
       </c>
       <c r="H507">
-        <f>IF(D507=E507,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.3">
@@ -14126,7 +14126,7 @@
         <v>1</v>
       </c>
       <c r="E508">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F508">
         <v>588.70000000000005</v>
@@ -14135,8 +14135,8 @@
         <v>589.49</v>
       </c>
       <c r="H508">
-        <f>IF(D508=E508,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.3">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="E509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F509">
         <v>585.88</v>
@@ -14162,8 +14162,8 @@
         <v>580.49</v>
       </c>
       <c r="H509">
-        <f>IF(D509=E509,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.3">
@@ -14180,7 +14180,7 @@
         <v>1</v>
       </c>
       <c r="E510">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F510">
         <v>575.77</v>
@@ -14189,8 +14189,8 @@
         <v>581.39</v>
       </c>
       <c r="H510">
-        <f>IF(D510=E510,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.3">
@@ -14216,7 +14216,7 @@
         <v>582.19000000000005</v>
       </c>
       <c r="H511">
-        <f>IF(D511=E511,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
         <v>592.78</v>
       </c>
       <c r="H512">
-        <f>IF(D512=E512,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -14261,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="E513">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F513">
         <v>594.17499999999995</v>
@@ -14270,8 +14270,8 @@
         <v>591.64</v>
       </c>
       <c r="H513">
-        <f>IF(D513=E513,1,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.3">
@@ -14297,7 +14297,7 @@
         <v>597.58000000000004</v>
       </c>
       <c r="H514">
-        <f>IF(D514=E514,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -14315,7 +14315,7 @@
         <v>1</v>
       </c>
       <c r="E515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F515">
         <v>600.66999999999996</v>
@@ -14324,8 +14324,8 @@
         <v>603.04999999999995</v>
       </c>
       <c r="H515">
-        <f>IF(D515=E515,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="H515:H526" si="8">IF(D515=E515,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.3">
@@ -14342,7 +14342,157 @@
         <v>1</v>
       </c>
       <c r="H516">
-        <f>IF(D516=E516,1,0)</f>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C517" s="2">
+        <v>45680</v>
+      </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
+      <c r="E517">
+        <v>0</v>
+      </c>
+      <c r="H517">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C518" s="2">
+        <v>45681</v>
+      </c>
+      <c r="D518">
+        <v>0</v>
+      </c>
+      <c r="E518">
+        <v>1</v>
+      </c>
+      <c r="H518">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C519" s="2">
+        <v>45684</v>
+      </c>
+      <c r="D519">
+        <v>1</v>
+      </c>
+      <c r="E519">
+        <v>0</v>
+      </c>
+      <c r="H519">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C520" s="2">
+        <v>45685</v>
+      </c>
+      <c r="D520">
+        <v>1</v>
+      </c>
+      <c r="E520">
+        <v>1</v>
+      </c>
+      <c r="H520">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C521" s="2">
+        <v>45686</v>
+      </c>
+      <c r="D521">
+        <v>0</v>
+      </c>
+      <c r="E521">
+        <v>1</v>
+      </c>
+      <c r="H521">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C522" s="2">
+        <v>45687</v>
+      </c>
+      <c r="D522">
+        <v>0</v>
+      </c>
+      <c r="E522">
+        <v>0</v>
+      </c>
+      <c r="H522">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C523" s="2">
+        <v>45688</v>
+      </c>
+      <c r="D523">
+        <v>0</v>
+      </c>
+      <c r="E523">
+        <v>0</v>
+      </c>
+      <c r="H523">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C524" s="2">
+        <v>45691</v>
+      </c>
+      <c r="D524">
+        <v>1</v>
+      </c>
+      <c r="E524">
+        <v>1</v>
+      </c>
+      <c r="H524">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C525" s="2">
+        <v>45692</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+      <c r="E525">
+        <v>1</v>
+      </c>
+      <c r="H525">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C526" s="2">
+        <v>45693</v>
+      </c>
+      <c r="D526">
+        <v>1</v>
+      </c>
+      <c r="E526">
+        <v>1</v>
+      </c>
+      <c r="H526">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>

--- a/OC_Santi_FI0123_FF0125.xlsx
+++ b/OC_Santi_FI0123_FF0125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D00585-E568-4C38-B24A-C4C1EEAD30BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9370F96-78B9-4A14-8659-A0A05EC8925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K515" sqref="K515"/>
+    <sheetView tabSelected="1" topLeftCell="A497" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L509" sqref="L509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>398.48</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>405.05</v>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>398.73</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
         <v>418.09</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -4055,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>449.13</v>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -6188,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
         <v>435.47</v>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="H214">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F326">
         <v>501.98</v>
@@ -9222,7 +9222,7 @@
       </c>
       <c r="H326">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
@@ -11480,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="E410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F410">
         <v>554.73</v>
@@ -11490,7 +11490,7 @@
       </c>
       <c r="H410">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -11507,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="E411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F411">
         <v>559.15</v>
@@ -11517,7 +11517,7 @@
       </c>
       <c r="H411">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="E417">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F417">
         <v>561.21</v>
@@ -11679,7 +11679,7 @@
       </c>
       <c r="H417">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.3">
@@ -12398,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="E444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F444">
         <v>571.29999999999995</v>
@@ -12408,7 +12408,7 @@
       </c>
       <c r="H444">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.3">
@@ -12668,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="E454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F454">
         <v>583.85</v>
@@ -12678,7 +12678,7 @@
       </c>
       <c r="H454">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
@@ -12992,7 +12992,7 @@
         <v>1</v>
       </c>
       <c r="E466">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F466">
         <v>589.20000000000005</v>
@@ -13002,7 +13002,7 @@
       </c>
       <c r="H466">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.3">
@@ -13424,7 +13424,7 @@
         <v>1</v>
       </c>
       <c r="E482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F482">
         <v>599.66</v>
@@ -13434,7 +13434,7 @@
       </c>
       <c r="H482">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.3">
@@ -13721,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="E493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F493">
         <v>606</v>
@@ -13731,7 +13731,7 @@
       </c>
       <c r="H493">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.3">
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="E495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F495">
         <v>603.98</v>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="H495">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.3">
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F496">
         <v>591.36</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="H496">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.3">
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="E501">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F501">
         <v>597.54</v>
@@ -13947,7 +13947,7 @@
       </c>
       <c r="H501">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.3">
@@ -13964,7 +13964,7 @@
         <v>1</v>
       </c>
       <c r="E502">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F502">
         <v>587.89</v>
@@ -13974,7 +13974,7 @@
       </c>
       <c r="H502">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.3">
@@ -14018,7 +14018,7 @@
         <v>0</v>
       </c>
       <c r="E504">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F504">
         <v>589.39</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H504">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.3">
@@ -14045,7 +14045,7 @@
         <v>1</v>
       </c>
       <c r="E505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F505">
         <v>587.53</v>
@@ -14055,7 +14055,7 @@
       </c>
       <c r="H505">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.3">
@@ -14099,7 +14099,7 @@
         <v>0</v>
       </c>
       <c r="E507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F507">
         <v>597.41999999999996</v>
@@ -14109,7 +14109,7 @@
       </c>
       <c r="H507">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.3">
@@ -14126,7 +14126,7 @@
         <v>1</v>
       </c>
       <c r="E508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F508">
         <v>588.70000000000005</v>
@@ -14136,7 +14136,7 @@
       </c>
       <c r="H508">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.3">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="E509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F509">
         <v>585.88</v>
@@ -14163,7 +14163,7 @@
       </c>
       <c r="H509">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.3">
@@ -14180,7 +14180,7 @@
         <v>1</v>
       </c>
       <c r="E510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F510">
         <v>575.77</v>
@@ -14190,7 +14190,7 @@
       </c>
       <c r="H510">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.3">
@@ -14261,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="E513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F513">
         <v>594.17499999999995</v>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="H513">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.3">
@@ -14315,7 +14315,7 @@
         <v>1</v>
       </c>
       <c r="E515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F515">
         <v>600.66999999999996</v>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="H515">
         <f t="shared" ref="H515:H526" si="8">IF(D515=E515,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.3">

--- a/OC_Santi_FI0123_FF0125.xlsx
+++ b/OC_Santi_FI0123_FF0125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9370F96-78B9-4A14-8659-A0A05EC8925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD46F2DE-24B3-43EE-888C-ABA37929F1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H526"/>
+  <dimension ref="A1:H528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L509" sqref="L509"/>
+    <sheetView tabSelected="1" topLeftCell="A505" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N522" sqref="N522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14324,7 +14324,7 @@
         <v>603.04999999999995</v>
       </c>
       <c r="H515">
-        <f t="shared" ref="H515:H526" si="8">IF(D515=E515,1,0)</f>
+        <f t="shared" ref="H515:H528" si="8">IF(D515=E515,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -14332,6 +14332,9 @@
       <c r="A516" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B516">
+        <v>3788</v>
+      </c>
       <c r="C516" s="2">
         <v>45679</v>
       </c>
@@ -14347,6 +14350,9 @@
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B517">
+        <v>3789</v>
+      </c>
       <c r="C517" s="2">
         <v>45680</v>
       </c>
@@ -14362,6 +14368,9 @@
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B518">
+        <v>3790</v>
+      </c>
       <c r="C518" s="2">
         <v>45681</v>
       </c>
@@ -14377,6 +14386,9 @@
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B519">
+        <v>3791</v>
+      </c>
       <c r="C519" s="2">
         <v>45684</v>
       </c>
@@ -14392,6 +14404,9 @@
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B520">
+        <v>3792</v>
+      </c>
       <c r="C520" s="2">
         <v>45685</v>
       </c>
@@ -14407,6 +14422,9 @@
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B521">
+        <v>3793</v>
+      </c>
       <c r="C521" s="2">
         <v>45686</v>
       </c>
@@ -14422,21 +14440,27 @@
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B522">
+        <v>3794</v>
+      </c>
       <c r="C522" s="2">
         <v>45687</v>
       </c>
       <c r="D522">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E522">
         <v>0</v>
       </c>
       <c r="H522">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B523">
+        <v>3795</v>
+      </c>
       <c r="C523" s="2">
         <v>45688</v>
       </c>
@@ -14452,6 +14476,9 @@
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B524">
+        <v>3796</v>
+      </c>
       <c r="C524" s="2">
         <v>45691</v>
       </c>
@@ -14467,6 +14494,9 @@
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B525">
+        <v>3797</v>
+      </c>
       <c r="C525" s="2">
         <v>45692</v>
       </c>
@@ -14482,6 +14512,9 @@
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B526">
+        <v>3798</v>
+      </c>
       <c r="C526" s="2">
         <v>45693</v>
       </c>
@@ -14492,6 +14525,42 @@
         <v>1</v>
       </c>
       <c r="H526">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B527">
+        <v>3799</v>
+      </c>
+      <c r="C527" s="2">
+        <v>45694</v>
+      </c>
+      <c r="D527">
+        <v>1</v>
+      </c>
+      <c r="E527">
+        <v>1</v>
+      </c>
+      <c r="H527">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B528">
+        <v>3800</v>
+      </c>
+      <c r="C528" s="2">
+        <v>45695</v>
+      </c>
+      <c r="D528">
+        <v>0</v>
+      </c>
+      <c r="E528">
+        <v>0</v>
+      </c>
+      <c r="H528">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
